--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3557229.31014944</v>
+        <v>3552971.047922964</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.0755486</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7935486.004933787</v>
+        <v>7935486.004933788</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616885</v>
+        <v>367.2390317808411</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.55520318927915</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241012348</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011779</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261752</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323632</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199361</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156102</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.128310457555909</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5177837414753</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>334.1682546126509</v>
       </c>
       <c r="G5" t="n">
-        <v>95.02580805421444</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>315.163651471617</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386862</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241012348</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011779</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261752</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323632</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199361</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156102</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973762</v>
+        <v>195.0452553973763</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>27.01866804855651</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.0760097706325</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.9585581530432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>20.84262635648673</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>38.02118375807938</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.5820139002099</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>35.44533471835382</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>96.78074638267718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5950626772357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.76045942439036</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>155.685013149897</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>56.04917322725727</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>239.1420382222378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>528.8394415512109</v>
+        <v>1663.788361862355</v>
       </c>
       <c r="C2" t="n">
-        <v>528.8394415512109</v>
+        <v>1294.825844921943</v>
       </c>
       <c r="D2" t="n">
-        <v>528.8394415512109</v>
+        <v>936.5601463151927</v>
       </c>
       <c r="E2" t="n">
-        <v>528.8394415512109</v>
+        <v>550.7718937169484</v>
       </c>
       <c r="F2" t="n">
-        <v>117.8535367616034</v>
+        <v>543.8263929677449</v>
       </c>
       <c r="G2" t="n">
-        <v>104.7940504119379</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="H2" t="n">
-        <v>104.7940504119379</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002561</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745338</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031161</v>
+        <v>704.9390792031089</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070949</v>
+        <v>1322.822366070962</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026066</v>
+        <v>1948.012457026075</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780564</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992995</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385544</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.799931140764</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.107259195795</v>
+        <v>2381.451089270047</v>
       </c>
       <c r="V2" t="n">
-        <v>1679.044371852224</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="W2" t="n">
-        <v>1679.044371852224</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="X2" t="n">
-        <v>1305.578613591144</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="Y2" t="n">
-        <v>915.4392816153327</v>
+        <v>2050.388201926477</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640334</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815724</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K3" t="n">
-        <v>164.270005738217</v>
+        <v>381.1211448320004</v>
       </c>
       <c r="L3" t="n">
-        <v>667.2528399353295</v>
+        <v>884.1039790291106</v>
       </c>
       <c r="M3" t="n">
-        <v>1306.189304916049</v>
+        <v>1523.040444009828</v>
       </c>
       <c r="N3" t="n">
-        <v>1958.575638897791</v>
+        <v>2175.42677799157</v>
       </c>
       <c r="O3" t="n">
-        <v>2506.500878103467</v>
+        <v>2506.500878103472</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877464</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.71808759448419</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448419</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448419</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448419</v>
+        <v>372.1695650087817</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448419</v>
+        <v>225.2796175108713</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448419</v>
+        <v>225.2796175108713</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448419</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448419</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.147531891974</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482342</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628178</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543796</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917133</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.77912932709</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421865</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421865</v>
+        <v>709.4945613603418</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421865</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421865</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="V4" t="n">
-        <v>793.067196215978</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="W4" t="n">
-        <v>503.6500261790174</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="X4" t="n">
-        <v>275.6604752810001</v>
+        <v>520.0826585911748</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.86789613746996</v>
+        <v>520.0826585911748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1383.984820805081</v>
+        <v>761.5869640788305</v>
       </c>
       <c r="C5" t="n">
-        <v>1383.984820805081</v>
+        <v>761.5869640788305</v>
       </c>
       <c r="D5" t="n">
-        <v>1383.984820805081</v>
+        <v>403.32126547208</v>
       </c>
       <c r="E5" t="n">
-        <v>998.1965682068369</v>
+        <v>403.32126547208</v>
       </c>
       <c r="F5" t="n">
-        <v>587.2106634172294</v>
+        <v>65.77757394414974</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160027</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760173996</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002561</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199868</v>
+        <v>321.4042764948827</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648569</v>
+        <v>872.344728223462</v>
       </c>
       <c r="M5" t="n">
-        <v>1210.458592371944</v>
+        <v>1501.978681104738</v>
       </c>
       <c r="N5" t="n">
-        <v>1835.648683327061</v>
+        <v>1694.195316891987</v>
       </c>
       <c r="O5" t="n">
-        <v>2380.810320081559</v>
+        <v>1964.401531937497</v>
       </c>
       <c r="P5" t="n">
-        <v>2489.83806029399</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385544</v>
+        <v>2479.413416894738</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385544</v>
+        <v>2264.560549649958</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385544</v>
+        <v>2264.560549649958</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.589911041973</v>
+        <v>2264.560549649958</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.589911041973</v>
+        <v>1911.791894379844</v>
       </c>
       <c r="X5" t="n">
-        <v>1774.124152780893</v>
+        <v>1538.326136118764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.984820805081</v>
+        <v>1148.186804142952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120979</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309709</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642642</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911491</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640335</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815724</v>
+        <v>98.84600463815764</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352086</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727264</v>
+        <v>499.1804835727238</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769839</v>
+        <v>1002.163317769834</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.051769638059</v>
+        <v>1238.315708304462</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944253</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149928</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877464</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>683.3167972148138</v>
+        <v>417.3210895500699</v>
       </c>
       <c r="C7" t="n">
-        <v>514.380614286907</v>
+        <v>248.384906622163</v>
       </c>
       <c r="D7" t="n">
-        <v>364.2639748745712</v>
+        <v>98.26826720982729</v>
       </c>
       <c r="E7" t="n">
-        <v>364.2639748745712</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="F7" t="n">
-        <v>364.2639748745712</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="G7" t="n">
-        <v>195.6516983569624</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="H7" t="n">
-        <v>195.6516983569624</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I7" t="n">
-        <v>70.9766833223958</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
-        <v>153.147531891974</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482342</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628178</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543796</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917133</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.77912932709</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421865</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="X7" t="n">
-        <v>864.9652620450536</v>
+        <v>819.7621335238398</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.9652620450536</v>
+        <v>598.9695543803097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>862.5396227055044</v>
+        <v>820.9923395498636</v>
       </c>
       <c r="C8" t="n">
-        <v>862.5396227055044</v>
+        <v>452.0298226094519</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5396227055044</v>
+        <v>93.76412400270135</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7513701072602</v>
+        <v>93.76412400270135</v>
       </c>
       <c r="F8" t="n">
-        <v>469.8058693580567</v>
+        <v>86.81862325349788</v>
       </c>
       <c r="G8" t="n">
-        <v>52.71808759448419</v>
+        <v>73.7712455303294</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>73.95233758786752</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9211411828129</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>876.7343994290121</v>
+        <v>709.3287504086591</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.452210412324</v>
+        <v>1341.046561391971</v>
       </c>
       <c r="N8" t="n">
-        <v>2135.75987847217</v>
+        <v>1968.354229451817</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453088</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702614</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724209</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
-        <v>2597.499143604937</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.807440350088</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="V8" t="n">
-        <v>2012.744553006518</v>
+        <v>1933.826593145179</v>
       </c>
       <c r="W8" t="n">
-        <v>2012.744553006518</v>
+        <v>1581.057937875065</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.278794745438</v>
+        <v>1207.592179613985</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.139462769626</v>
+        <v>1207.592179613985</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.6229446041677</v>
+        <v>98.62294460416773</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448419</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578412</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572806</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2467.055139325529</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.6377680871234</v>
+        <v>386.4188057796641</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747876</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923945</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448419</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448419</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448419</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448419</v>
+        <v>70.59267535384683</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448419</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>725.6273189851407</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>725.6273189851407</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>725.6273189851407</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>725.6273189851407</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>725.6273189851407</v>
+        <v>1016.849400651451</v>
       </c>
       <c r="X10" t="n">
-        <v>497.6377680871234</v>
+        <v>788.859849753434</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.6377680871234</v>
+        <v>568.0672706099039</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5287,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133959</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133959</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310026</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330921</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.663568322144</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>958.256847387166</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436357</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368217</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244859</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420928</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949683</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1820.203491470209</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1565.519003264322</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1276.101833227361</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1048.112282329344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,16 +6721,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6745,7 +6745,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,64 +6913,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3006.417838136243</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1802.949169892209</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1548.264681686322</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.847511649361</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1030.857960751344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>810.0653816078141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>437.6441738832907</v>
+        <v>437.6441738833148</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026545838</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K3" t="n">
-        <v>45.4236823723917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792235</v>
+        <v>459.9808678792267</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>174.8207646365564</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>103.0674320617508</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.4987613121263</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>58.85246329940489</v>
       </c>
       <c r="N6" t="n">
-        <v>268.9297510352359</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>186.1182127918765</v>
+        <v>355.2148279639516</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243203</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>36.95094644516016</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-1.221113634493629e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.46607471595065</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>41.54258064659248</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>129.6605885985409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>130.4994612393472</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>80.44045370237411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1976478713706</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>47.04243616700631</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731153.2423263938</v>
+        <v>731153.2423263944</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731153.2423263938</v>
+        <v>731153.2423263944</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730805.06386243</v>
+        <v>730805.0638624302</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132557</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222444</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448471433</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329926</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.039422516311918e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.14138214</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.039422516311918e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408953</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408953</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694926</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695114</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538448</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538448</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917782</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301384.7566640619</v>
+        <v>-301384.7566640587</v>
       </c>
       <c r="C6" t="n">
-        <v>488461.1764581823</v>
+        <v>488461.1764581812</v>
       </c>
       <c r="D6" t="n">
-        <v>486346.1846508106</v>
+        <v>486346.1846508066</v>
       </c>
       <c r="E6" t="n">
-        <v>-136423.6778753393</v>
+        <v>-136771.0571296961</v>
       </c>
       <c r="F6" t="n">
-        <v>639200.5943576533</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="G6" t="n">
-        <v>639200.5943576531</v>
+        <v>638853.2151032963</v>
       </c>
       <c r="H6" t="n">
-        <v>639200.5943576533</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="I6" t="n">
-        <v>639200.5943576535</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="J6" t="n">
-        <v>466783.4529755129</v>
+        <v>466436.0737211558</v>
       </c>
       <c r="K6" t="n">
-        <v>639200.5943576531</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="L6" t="n">
-        <v>639200.5943576531</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="M6" t="n">
-        <v>511176.4768912663</v>
+        <v>510829.0976369092</v>
       </c>
       <c r="N6" t="n">
-        <v>639200.5943576532</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="O6" t="n">
-        <v>639200.5943576535</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="P6" t="n">
-        <v>639200.5943576531</v>
+        <v>638853.2151032961</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.561354634218983e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.561354634218983e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.561354634218983e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053437</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632721363</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>45.68985970532776</v>
       </c>
       <c r="H2" t="n">
-        <v>315.163651471617</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>67.40298734940708</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.7036697243814</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>18.0760097706325</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371264</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>35.87809627924045</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>72.70779112906052</v>
       </c>
       <c r="G5" t="n">
-        <v>317.9030834319544</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4152945980127</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371264</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207157</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>44.751097235994</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>294.1982577187288</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>174.6306793568866</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>10.78386799990872</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>251.0776636182372</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.912666235812576e-15</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,19 +28332,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.612476886878223e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966204</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415014</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171967</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009706</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>301.96211680711</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160846</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337123</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635126</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129798</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728766</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605244</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170484</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506743</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179956</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172963</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366211</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387893</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817876</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401209</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>205.096461797657</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623872</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394123</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351621</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492055</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789741</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190974</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064952</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822763</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445384</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830339</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026029</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849615</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303733</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604028</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546605</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177244</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609711</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203288</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953883</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324572</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.1646241555069</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400431</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319907</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565762</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232895</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966204</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415014</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171967</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009706</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>301.96211680711</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160846</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337123</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635126</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129798</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728766</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605244</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170484</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506743</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179956</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172963</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366211</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387893</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817876</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401209</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>205.096461797657</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623872</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394123</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351621</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492055</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789741</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190974</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064952</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822763</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445384</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830339</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026029</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849615</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303733</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604028</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546605</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177244</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609711</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203288</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953883</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324572</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.1646241555069</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400431</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319907</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565762</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232895</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312094</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428427</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212947</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965477</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M2" t="n">
-        <v>624.1245321897303</v>
+        <v>624.1245321897509</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789058</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540385</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176071</v>
+        <v>110.1290305176042</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607488</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>112.6787051956897</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859722</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673939</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814905</v>
+        <v>334.4182829413149</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646439</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307589</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287776</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780406</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228117</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995574</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.093387209428</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973507</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812515</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428427</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332942</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965477</v>
+        <v>556.5055067965446</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064396</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789058</v>
+        <v>194.1582179669181</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540385</v>
+        <v>272.9355707530406</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176071</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.5417367982012</v>
+        <v>246.3579661459774</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313863</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358766</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859722</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>179.685304917394</v>
+        <v>238.5377682167962</v>
       </c>
       <c r="N6" t="n">
-        <v>467.9249780870646</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814905</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045811</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307589</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287776</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780406</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228117</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995574</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.093387209428</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973507</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812515</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
@@ -35187,7 +35187,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>358.0061171524416</v>
+        <v>527.1027323245168</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310523</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>146.7384489979873</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>407.323644686765</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3552971.047922964</v>
+        <v>3554731.57822575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>343.1165561086457</v>
       </c>
       <c r="G2" t="n">
-        <v>367.2390317808411</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>36.08045240132744</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5177837414753</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>334.1682546126509</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>234.9214157923944</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.01866804855651</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.6369540390128</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>288.3284463661234</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>20.84262635648673</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>35.44533471835382</v>
+        <v>198.5622246230541</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.799772605717069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>214.6102731485172</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>33.0162797694411</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453148</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4315,43 +4315,43 @@
         <v>936.5601463151927</v>
       </c>
       <c r="E2" t="n">
-        <v>550.7718937169484</v>
+        <v>936.5601463151927</v>
       </c>
       <c r="F2" t="n">
-        <v>543.8263929677449</v>
+        <v>589.9777664074697</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031089</v>
+        <v>1025.843037648564</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070962</v>
+        <v>1655.476990529841</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026075</v>
+        <v>1847.693626317092</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>2174.5933726908</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4403,34 +4403,34 @@
         <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320004</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291106</v>
+        <v>622.2833943866591</v>
       </c>
       <c r="M3" t="n">
-        <v>1523.040444009828</v>
+        <v>1261.219859367377</v>
       </c>
       <c r="N3" t="n">
-        <v>2175.42677799157</v>
+        <v>1913.606193349119</v>
       </c>
       <c r="O3" t="n">
-        <v>2506.500878103472</v>
+        <v>2461.531432554793</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="C4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="D4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="E4" t="n">
-        <v>372.1695650087817</v>
+        <v>217.8666308203066</v>
       </c>
       <c r="F4" t="n">
-        <v>225.2796175108713</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="G4" t="n">
-        <v>225.2796175108713</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661735</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>709.4945613603418</v>
+        <v>880.5846011506941</v>
       </c>
       <c r="T4" t="n">
-        <v>520.0826585911748</v>
+        <v>654.932197089365</v>
       </c>
       <c r="U4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="V4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="W4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="X4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.0826585911748</v>
+        <v>365.7797244026997</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.5869640788305</v>
+        <v>1487.06075910083</v>
       </c>
       <c r="C5" t="n">
-        <v>761.5869640788305</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="D5" t="n">
-        <v>403.32126547208</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="E5" t="n">
-        <v>403.32126547208</v>
+        <v>1118.098242160418</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414974</v>
+        <v>707.1123373708108</v>
       </c>
       <c r="G5" t="n">
-        <v>52.71808759448422</v>
+        <v>290.0124469807412</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.350733390377</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K5" t="n">
-        <v>321.4042764948827</v>
+        <v>321.4042764948841</v>
       </c>
       <c r="L5" t="n">
-        <v>872.344728223462</v>
+        <v>458.8601258185185</v>
       </c>
       <c r="M5" t="n">
-        <v>1501.978681104738</v>
+        <v>1004.24164498119</v>
       </c>
       <c r="N5" t="n">
-        <v>1694.195316891987</v>
+        <v>1629.431735936304</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937497</v>
+        <v>2174.5933726908</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239693</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2479.413416894738</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.560549649958</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.560549649958</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="V5" t="n">
-        <v>2264.560549649958</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="W5" t="n">
-        <v>1911.791894379844</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="X5" t="n">
-        <v>1538.326136118764</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1148.186804142952</v>
+        <v>1873.660599164952</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352076</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727238</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769834</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304462</v>
+        <v>1523.04044400983</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.32098308577</v>
+        <v>1720.045718791139</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291443</v>
+        <v>2267.970957996813</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.3210895500699</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="C7" t="n">
-        <v>248.384906622163</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="D7" t="n">
-        <v>98.26826720982729</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="E7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>843.067892463261</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>843.067892463261</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421857</v>
+        <v>843.067892463261</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421857</v>
+        <v>588.3834042573742</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421857</v>
+        <v>298.9662342204135</v>
       </c>
       <c r="X7" t="n">
-        <v>819.7621335238398</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.9695543803097</v>
+        <v>70.97668332239621</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>820.9923395498636</v>
+        <v>801.8679068095121</v>
       </c>
       <c r="C8" t="n">
-        <v>452.0298226094519</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="D8" t="n">
-        <v>93.76412400270135</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="E8" t="n">
-        <v>93.76412400270135</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="F8" t="n">
-        <v>86.81862325349788</v>
+        <v>503.6815511450324</v>
       </c>
       <c r="G8" t="n">
-        <v>73.7712455303294</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086591</v>
+        <v>1033.218542125548</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.046561391971</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.354229451817</v>
+        <v>1414.252167842938</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.826593145179</v>
+        <v>2304.841492380639</v>
       </c>
       <c r="W8" t="n">
-        <v>1581.057937875065</v>
+        <v>1952.072837110525</v>
       </c>
       <c r="X8" t="n">
-        <v>1207.592179613985</v>
+        <v>1578.607078849446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1207.592179613985</v>
+        <v>1188.467746873634</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
         <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.4188057796641</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C10" t="n">
-        <v>217.4826228517572</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>217.4826228517572</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4826228517572</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>1016.849400651451</v>
+        <v>852.0848653941783</v>
       </c>
       <c r="X10" t="n">
-        <v>788.859849753434</v>
+        <v>624.095314496161</v>
       </c>
       <c r="Y10" t="n">
-        <v>568.0672706099039</v>
+        <v>403.3027353526309</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820878</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>801.6605733532804</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1432.091168225068</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>983.3090381835201</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981029</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>467.731836970196</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283426</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,34 +5889,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5980,37 +5980,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300683</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300683</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7438,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,13 +7484,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,7 +7836,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>437.6441738833148</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>160.3336253225559</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
-        <v>174.8207646365564</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>45.42368237240066</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>364.4100650902004</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>103.0674320617508</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>58.85246329940489</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>240.9393132390475</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818469</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>355.2148279639516</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.221113634493629e-12</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>37.52737017531084</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.2784330767828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695402</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731153.2423263944</v>
+        <v>731153.2423263942</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731153.2423263944</v>
+        <v>731153.2423263942</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730805.0638624302</v>
+        <v>730805.06386243</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329926</v>
+        <v>775624.2722329921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663869</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695087</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695087</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695114</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695087</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301384.7566640587</v>
+        <v>-301384.7566640596</v>
       </c>
       <c r="C6" t="n">
-        <v>488461.1764581812</v>
+        <v>488461.1764581817</v>
       </c>
       <c r="D6" t="n">
-        <v>486346.1846508066</v>
+        <v>486346.1846508076</v>
       </c>
       <c r="E6" t="n">
-        <v>-136771.0571296961</v>
+        <v>-136458.4158007747</v>
       </c>
       <c r="F6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="G6" t="n">
-        <v>638853.2151032963</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="H6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="I6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="J6" t="n">
-        <v>466436.0737211558</v>
+        <v>466748.715050077</v>
       </c>
       <c r="K6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322178</v>
       </c>
       <c r="L6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="M6" t="n">
-        <v>510829.0976369092</v>
+        <v>511141.7389658305</v>
       </c>
       <c r="N6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="O6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="P6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322173</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685962</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>63.75948963306575</v>
       </c>
       <c r="G2" t="n">
-        <v>45.68985970532776</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>169.3791393924458</v>
       </c>
       <c r="T4" t="n">
-        <v>35.87809627924045</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>72.70779112906052</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>80.24223567922272</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>119.4152945980127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>2.822637754760478</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27833,16 +27833,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76.94444540488411</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.1982577187288</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>251.0776636182372</v>
+        <v>87.96077371353692</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>595.3857163736986</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312094</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32086,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>618.3341264639744</v>
+        <v>583.1096135868581</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491751</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>391.9250669264629</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212697</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965446</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
-        <v>624.1245321897509</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540352</v>
+        <v>330.2017640138469</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358749</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>334.4182829413149</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646419</v>
+        <v>153.9864114370432</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463564</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212697</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965446</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>550.8904233966377</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669181</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>272.9355707530406</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890869</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459774</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>238.5377682167962</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051826</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>349.5020423036901</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.3166085831128</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>527.1027323245168</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>453.2516824516803</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>407.323644686765</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>476.2000925419561</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>73.18080466315352</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
